--- a/aerodynamic_properties/cg_data.xlsx
+++ b/aerodynamic_properties/cg_data.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="cg_ref" sheetId="1" r:id="rId1"/>
+    <sheet name="cg_flight" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>5.3</t>
   </si>
@@ -107,7 +108,29 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -383,13 +406,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>5730</v>
+      </c>
+      <c r="B2" s="1">
+        <v>161</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>471</v>
+      </c>
+      <c r="H2" s="1">
+        <v>493</v>
+      </c>
+      <c r="I2" s="1">
+        <v>881</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>5790</v>
+      </c>
+      <c r="B3" s="1">
+        <v>161</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-30</v>
+      </c>
+      <c r="G3" s="1">
+        <v>468</v>
+      </c>
+      <c r="H3" s="1">
+        <v>490</v>
+      </c>
+      <c r="I3" s="1">
+        <v>910</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:J3">
+    <cfRule type="expression" priority="6">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:M7">
+    <cfRule type="expression" priority="5">
+      <formula>LEN(TRIM(L1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:A12">
+    <cfRule type="expression" priority="4">
+      <formula>LEN(TRIM(A6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B12">
+    <cfRule type="expression" priority="3">
+      <formula>LEN(TRIM(B6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:E12">
+    <cfRule type="expression" priority="2">
+      <formula>LEN(TRIM(D6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C12">
+    <cfRule type="expression" priority="1">
+      <formula>LEN(TRIM(C6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -425,71 +662,71 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>5730</v>
+        <v>7490</v>
       </c>
       <c r="B2" s="1">
-        <v>161</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.9</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>-0.4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
       <c r="G2" s="1">
-        <v>471</v>
+        <v>395.5</v>
       </c>
       <c r="H2" s="1">
-        <v>493</v>
+        <v>435</v>
       </c>
       <c r="I2" s="1">
-        <v>881</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>2</v>
+        <v>684</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-5.2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>5790</v>
+        <v>7440</v>
       </c>
       <c r="B3" s="1">
-        <v>161</v>
+        <v>147.5</v>
       </c>
       <c r="C3" s="1">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.2999999999999998</v>
       </c>
       <c r="F3" s="1">
-        <v>-30</v>
+        <v>-25.5</v>
       </c>
       <c r="G3" s="1">
-        <v>468</v>
+        <v>395</v>
       </c>
       <c r="H3" s="1">
-        <v>490</v>
+        <v>433</v>
       </c>
       <c r="I3" s="1">
-        <v>910</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>2</v>
+        <v>708</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-5.2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:J3">
-    <cfRule type="expression" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
